--- a/Dataquest/Predicting Car prices/sample_data.xlsx
+++ b/Dataquest/Predicting Car prices/sample_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Repos Folder\Data Science\Dataquest\Predicting Car prices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1CB873A3-55A8-4B02-BE5D-C2BB1A97B024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DAA3F4-7E8B-4EB3-8348-7801319688F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="68">
   <si>
     <t>symboling</t>
   </si>
@@ -200,25 +200,37 @@
     <t>object</t>
   </si>
   <si>
-    <t>Replace any bad data; change Type;  may need to normalize</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
     <t>Change type; Normalize</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>categorical</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>Clean bad data; Change Type;  may need to normalize</t>
+  </si>
+  <si>
+    <t>NA - 41</t>
+  </si>
+  <si>
+    <t>Clean, Change type; Normalize</t>
+  </si>
+  <si>
+    <t>y -4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y -2 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -753,18 +765,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1114,14 +1123,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1660,49 +1669,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
     <col min="9" max="9" width="10.21875" customWidth="1"/>
     <col min="10" max="10" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1720,15 +1729,18 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>57</v>
       </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1746,21 +1758,21 @@
       <c r="F3">
         <v>164</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>59</v>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1778,15 +1790,16 @@
       <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="J4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1804,15 +1817,16 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="J5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1830,15 +1844,16 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="J6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1856,15 +1871,16 @@
       <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="J7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1882,15 +1898,16 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="J8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1908,15 +1925,16 @@
       <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1934,15 +1952,16 @@
       <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="9"/>
       <c r="J10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1960,18 +1979,18 @@
       <c r="F11">
         <v>99.4</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
-        <v>60</v>
+      <c r="H11" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -1989,18 +2008,18 @@
       <c r="F12">
         <v>176.6</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H12" t="s">
-        <v>60</v>
+      <c r="H12" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="J12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -2018,18 +2037,18 @@
       <c r="F13">
         <v>66.400000000000006</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H13" t="s">
-        <v>60</v>
+      <c r="H13" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="J13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -2047,18 +2066,18 @@
       <c r="F14">
         <v>54.3</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H14" t="s">
-        <v>60</v>
+      <c r="H14" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="J14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -2076,10 +2095,10 @@
       <c r="F15">
         <v>2824</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J15" t="s">
@@ -2087,7 +2106,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -2105,15 +2124,16 @@
       <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="J16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -2131,15 +2151,16 @@
       <c r="F17" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="J17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -2157,10 +2178,10 @@
       <c r="F18">
         <v>136</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J18" t="s">
@@ -2168,7 +2189,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -2186,15 +2207,16 @@
       <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="9"/>
       <c r="J19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -2212,21 +2234,21 @@
       <c r="F20">
         <v>3.19</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21">
@@ -2244,21 +2266,21 @@
       <c r="F21">
         <v>3.4</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22">
@@ -2276,18 +2298,18 @@
       <c r="F22">
         <v>8</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H22" t="s">
-        <v>60</v>
+      <c r="H22" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="J22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B23">
@@ -2305,21 +2327,21 @@
       <c r="F23">
         <v>115</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24">
@@ -2337,21 +2359,21 @@
       <c r="F24">
         <v>5500</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="8" t="s">
         <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25">
@@ -2369,10 +2391,10 @@
       <c r="F25">
         <v>18</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J25" t="s">
@@ -2380,7 +2402,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26">
@@ -2398,10 +2420,10 @@
       <c r="F26">
         <v>22</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="9" t="s">
         <v>57</v>
       </c>
       <c r="J26" t="s">
@@ -2409,7 +2431,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27">
@@ -2427,17 +2449,17 @@
       <c r="F27">
         <v>17450</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I27" t="s">
-        <v>62</v>
+      <c r="I27" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
